--- a/Base/Teams/Saints/Players Stats.xlsx
+++ b/Base/Teams/Saints/Players Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/Saints/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Saints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EAE4211-8CB0-42F0-88B0-0094C1857855}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2453BC94-16D7-46FA-95DD-210C782BBDCE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>A.Prentice</t>
+  </si>
+  <si>
+    <t>E.Winston</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -960,10 +963,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12D00DA-02B2-4502-AFFA-15E1047659D6}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1288,6 +1291,38 @@
         <v>0</v>
       </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Saints/Players Stats.xlsx
+++ b/Base/Teams/Saints/Players Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Saints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2453BC94-16D7-46FA-95DD-210C782BBDCE}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2C59D06-7069-4785-90B4-C9E23AB7AD31}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>E.Winston</t>
+  </si>
+  <si>
+    <t>E.Wolf</t>
   </si>
 </sst>
 </file>
@@ -963,10 +966,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12D00DA-02B2-4502-AFFA-15E1047659D6}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1323,6 +1326,38 @@
         <v>0</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>0</v>
       </c>
     </row>
